--- a/xlsx/国际经济研究所_intext.xlsx
+++ b/xlsx/国际经济研究所_intext.xlsx
@@ -29,7 +29,7 @@
     <t>彼得森国际经济研究所</t>
   </si>
   <si>
-    <t>政策_政策_智庫_国际经济研究所</t>
+    <t>政策_政策_智库_国际经济研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%BC%80%E5%A4%A7%E5%AD%A6%E5%9B%BD%E9%99%85%E7%BB%8F%E6%B5%8E%E7%A0%94%E7%A9%B6%E6%89%80</t>
